--- a/RancanganDatabase_ATM_NurAli.xlsx
+++ b/RancanganDatabase_ATM_NurAli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\24_PTS_ATM_NurAli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F747467-5831-421F-9796-BD829A7FB220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F3659-6FF1-4491-AB5D-508D3C44209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68A05D91-0035-4393-B9AC-2B120ECA6CA5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>5 table</t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>nurratm</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>gagal</t>
+  </si>
+  <si>
+    <t>berhasil</t>
+  </si>
+  <si>
+    <t>moneys</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>transfer_id</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>money_id</t>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
   </si>
 </sst>
 </file>
@@ -137,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,16 +193,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,40 +534,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F054EE3-A121-42CD-A9EC-3918877B1E04}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="13" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -534,20 +603,29 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -563,11 +641,29 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -583,11 +679,29 @@
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1">
+        <v>300000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -603,9 +717,118 @@
       <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1">
+        <v>300000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RancanganDatabase_ATM_NurAli.xlsx
+++ b/RancanganDatabase_ATM_NurAli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\24_PTS_ATM_NurAli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F3659-6FF1-4491-AB5D-508D3C44209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF74435-4803-4B10-ABA4-A567DD8DF36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68A05D91-0035-4393-B9AC-2B120ECA6CA5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>5 table</t>
   </si>
@@ -104,9 +104,6 @@
     <t>TRANSFER</t>
   </si>
   <si>
-    <t>gagal</t>
-  </si>
-  <si>
     <t>berhasil</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>WITHDRAW</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -537,11 +537,12 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="12" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,7 +573,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -592,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -610,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -680,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>20000</v>
@@ -692,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="1">
         <v>300000</v>
@@ -718,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1">
         <v>30000</v>
@@ -730,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="1">
         <v>300000</v>
@@ -744,10 +745,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -755,19 +756,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -783,14 +787,17 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1">
         <v>20000</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -803,30 +810,34 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1">
         <v>100000</v>
       </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
         <v>200000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>3</v>
       </c>
     </row>
